--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_17_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_17_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2924036.118684744</v>
+        <v>3014956.600095977</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10909358.91494963</v>
+        <v>10906349.75204299</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1554850.914038108</v>
+        <v>1555926.763495863</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8071195.701121044</v>
+        <v>8072446.913350474</v>
       </c>
     </row>
     <row r="11">
@@ -1370,22 +1372,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>261.5459553935345</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403094</v>
+        <v>197.2952558794576</v>
       </c>
       <c r="V11" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,25 +1530,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I13" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1582,7 +1584,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
-        <v>239.2367015870209</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V13" t="n">
         <v>205.1625067052354</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
-        <v>240.9078483078758</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>14.97528736302446</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>280.7771218515423</v>
@@ -1673,7 +1675,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
         <v>120.2716844800353</v>
@@ -1771,19 +1773,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797664</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G16" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572876</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124556</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T16" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W16" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X16" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1849,7 @@
         <v>318.297755152415</v>
       </c>
       <c r="D17" t="n">
-        <v>307.7079050020904</v>
+        <v>234.9948000214058</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U17" t="n">
         <v>204.0200353403094</v>
@@ -1904,7 +1906,7 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W17" t="n">
-        <v>84.22972854034469</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>322.7559640598765</v>
@@ -1938,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2008,16 +2010,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797663</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F19" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G19" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I19" t="n">
         <v>49.37728379124555</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145481</v>
       </c>
       <c r="S19" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T19" t="n">
         <v>172.5738126575766</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>47.93806880441687</v>
       </c>
       <c r="C20" t="n">
         <v>318.297755152415</v>
@@ -2090,13 +2092,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>92.61262097105516</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U20" t="n">
         <v>204.0200353403094</v>
@@ -2178,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2245,19 +2247,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797663</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F22" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G22" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T23" t="n">
-        <v>156.9428335210278</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U23" t="n">
-        <v>204.0200353403088</v>
+        <v>204.0200353403097</v>
       </c>
       <c r="V23" t="n">
         <v>280.7771218515423</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2482,19 +2484,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797663</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F25" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G25" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,7 +2535,7 @@
         <v>239.2367015870203</v>
       </c>
       <c r="V25" t="n">
-        <v>205.1625067052356</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W25" t="n">
         <v>239.5478617179984</v>
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>341.1569118905546</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>323.6959619980816</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>313.106111847757</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
-        <v>340.3534402993358</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>365.2991159687855</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>369.3447958805275</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>253.0308346143945</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>67.61083201524988</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T26" t="n">
-        <v>162.3410403666942</v>
+        <v>156.9428335210278</v>
       </c>
       <c r="U26" t="n">
-        <v>209.418242185976</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V26" t="n">
-        <v>286.175328697209</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>307.6640389444871</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>328.1541709055431</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>269.0861130437948</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>138.2550504090113</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>125.6698913257019</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
-        <v>107.0385432452864</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>104.8570328736432</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F28" t="n">
-        <v>103.8441182500053</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G28" t="n">
-        <v>124.4488784861023</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>97.77987829572793</v>
       </c>
       <c r="I28" t="n">
-        <v>54.77549063691215</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.83573827234788</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
-        <v>148.1920955585159</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>177.9720195032432</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>244.6349084326869</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>210.5607135509021</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>244.9460685636651</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>184.1327256161112</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>177.0077235791688</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2792,22 +2794,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958325</v>
+        <v>62.2126251695837</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2889,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247754</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2952,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433864</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572818</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I31" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3004,16 +3006,16 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052367</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179978</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
         <v>171.6095167335022</v>
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.7587050448879</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536691</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958318</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
         <v>204.0200353403093</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515422</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988203</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.2628020374609</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="33">
@@ -3187,25 +3189,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797653</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.4459114043386</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572814</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124545</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145469</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3241,7 +3243,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870209</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3250,10 +3252,10 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335021</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.758705044888</v>
+        <v>268.487672967474</v>
       </c>
       <c r="C35" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020903</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>261.5459553935349</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3363,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124551</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>41.95701605145474</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T37" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870211</v>
       </c>
       <c r="V37" t="n">
         <v>205.1625067052354</v>
@@ -3512,10 +3514,10 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>233.0687863154188</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H38" t="n">
         <v>247.6326277687278</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403094</v>
+        <v>119.1076609658331</v>
       </c>
       <c r="V38" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988204</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598764</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>339.262802037461</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3679,7 +3681,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>41.95701605145474</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870209</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
         <v>205.1625067052354</v>
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>377.335634817814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>359.8746849253409</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>349.2848347750163</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>376.5321632265952</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>401.4778388960448</v>
+        <v>126.7498226612777</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>74.462460675518</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>198.5197632939536</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>343.8427618717464</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>364.3328938328024</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>380.839731810387</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>174.4337733362707</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>161.8486142529613</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>4.84905458287446</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>141.0357558009026</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>140.0228411772647</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.6276014133616</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>139.3568080686542</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>182.4129545762459</v>
       </c>
       <c r="T43" t="n">
-        <v>214.1507424305026</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>246.7394364781614</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>281.1247914909244</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>220.3114485433706</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3986,13 +3988,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>128.8771852996418</v>
+        <v>11.29286655851775</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -4037,13 +4039,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4150,7 +4152,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>128.432533298243</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4192,16 +4194,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>137.2535816974948</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1301.367519464213</v>
+        <v>1650.849925018064</v>
       </c>
       <c r="C11" t="n">
-        <v>979.8546354718744</v>
+        <v>1329.337041025725</v>
       </c>
       <c r="D11" t="n">
-        <v>669.0385698131972</v>
+        <v>1018.520975367048</v>
       </c>
       <c r="E11" t="n">
-        <v>330.6999501630264</v>
+        <v>680.1823557168773</v>
       </c>
       <c r="F11" t="n">
-        <v>66.51211643218342</v>
+        <v>316.646083875343</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218342</v>
@@ -5039,19 +5041,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5069,22 +5071,22 @@
         <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416635</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638544</v>
+        <v>2904.948534164657</v>
       </c>
       <c r="V11" t="n">
-        <v>2614.542573243047</v>
+        <v>2621.33527976916</v>
       </c>
       <c r="W11" t="n">
-        <v>2309.223550921006</v>
+        <v>2316.016257447119</v>
       </c>
       <c r="X11" t="n">
-        <v>1983.207425608</v>
+        <v>1990.000132134112</v>
       </c>
       <c r="Y11" t="n">
-        <v>1640.517726580261</v>
+        <v>1990.000132134112</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052937</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254601</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611977</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E13" t="n">
-        <v>434.849232726878</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F13" t="n">
-        <v>335.408918177041</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998335</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328088</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337116</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
       </c>
       <c r="N13" t="n">
-        <v>1550.274078843939</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O13" t="n">
         <v>1896.109063016759</v>
@@ -5230,19 +5232,19 @@
         <v>1938.403572105846</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V13" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874601</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1644.057218491951</v>
+        <v>1650.849925018064</v>
       </c>
       <c r="C14" t="n">
-        <v>1322.544334499612</v>
+        <v>1329.337041025725</v>
       </c>
       <c r="D14" t="n">
-        <v>1011.728268840935</v>
+        <v>1018.520975367048</v>
       </c>
       <c r="E14" t="n">
-        <v>673.389649190764</v>
+        <v>680.1823557168773</v>
       </c>
       <c r="F14" t="n">
-        <v>309.8533773492297</v>
+        <v>316.646083875343</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218342</v>
@@ -5276,10 +5278,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5306,22 +5308,22 @@
         <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416634</v>
+        <v>3247.638233192395</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638544</v>
+        <v>3247.638233192395</v>
       </c>
       <c r="V14" t="n">
-        <v>2614.542573243047</v>
+        <v>2964.024978796898</v>
       </c>
       <c r="W14" t="n">
-        <v>2309.223550921006</v>
+        <v>2658.705956474857</v>
       </c>
       <c r="X14" t="n">
-        <v>1983.207425607999</v>
+        <v>2332.689831161851</v>
       </c>
       <c r="Y14" t="n">
-        <v>1983.207425607999</v>
+        <v>1990.000132134112</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
@@ -5388,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052946</v>
+        <v>759.4662498052949</v>
       </c>
       <c r="C16" t="n">
-        <v>637.979699825461</v>
+        <v>637.9796998254612</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611985</v>
+        <v>535.3126933611989</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268791</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770415</v>
+        <v>335.408918177042</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998338</v>
+        <v>215.1557144998342</v>
       </c>
       <c r="H16" t="n">
         <v>116.3881606657648</v>
@@ -5479,7 +5481,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874611</v>
+        <v>893.6650816874612</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1680.134122574823</v>
+        <v>1606.686541786253</v>
       </c>
       <c r="C17" t="n">
-        <v>1358.621238582484</v>
+        <v>1285.173657793914</v>
       </c>
       <c r="D17" t="n">
         <v>1047.805172923807</v>
@@ -5507,25 +5509,25 @@
         <v>316.6460838753429</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5537,28 +5539,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
         <v>3262.764786084339</v>
       </c>
       <c r="T17" t="n">
-        <v>3262.764786084339</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U17" t="n">
-        <v>3056.683942306249</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V17" t="n">
-        <v>2773.070687910752</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W17" t="n">
-        <v>2687.990154031616</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="X17" t="n">
-        <v>2361.97402871861</v>
+        <v>2288.526447930039</v>
       </c>
       <c r="Y17" t="n">
-        <v>2019.284329690871</v>
+        <v>1945.836748902301</v>
       </c>
     </row>
     <row r="18">
@@ -5583,22 +5585,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5607,10 +5609,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E19" t="n">
         <v>434.8492327268785</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G19" t="n">
         <v>215.1557144998337</v>
@@ -5668,16 +5670,16 @@
         <v>116.3881606657648</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L19" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M19" t="n">
         <v>1162.360316885667</v>
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1768.338774781834</v>
+        <v>1654.93647038346</v>
       </c>
       <c r="C20" t="n">
-        <v>1446.825890789496</v>
+        <v>1333.423586391121</v>
       </c>
       <c r="D20" t="n">
-        <v>1136.009825130819</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E20" t="n">
-        <v>797.6712054806479</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="F20" t="n">
-        <v>434.1349336391137</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218346</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5768,34 +5770,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3232.057719618208</v>
+        <v>3167.077706941466</v>
       </c>
       <c r="U20" t="n">
-        <v>3025.976875840118</v>
+        <v>2960.996863163376</v>
       </c>
       <c r="V20" t="n">
-        <v>2742.363621444621</v>
+        <v>2677.383608767879</v>
       </c>
       <c r="W20" t="n">
-        <v>2437.04459912258</v>
+        <v>2372.064586445838</v>
       </c>
       <c r="X20" t="n">
-        <v>2111.028473809573</v>
+        <v>2046.048461132831</v>
       </c>
       <c r="Y20" t="n">
-        <v>1768.338774781834</v>
+        <v>1703.358762105093</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5862,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E22" t="n">
         <v>434.8492327268785</v>
@@ -5905,16 +5907,16 @@
         <v>116.3881606657648</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L22" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M22" t="n">
         <v>1162.360316885667</v>
@@ -5953,7 +5955,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y22" t="n">
-        <v>893.6650816874609</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5989,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J23" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K23" t="n">
-        <v>792.1780824632688</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L23" t="n">
-        <v>1243.212295711678</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M23" t="n">
-        <v>1776.744200383602</v>
+        <v>2305.516762226675</v>
       </c>
       <c r="N23" t="n">
-        <v>2323.523017442385</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O23" t="n">
-        <v>2826.495488321721</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P23" t="n">
-        <v>3539.850575768667</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q23" t="n">
         <v>3998.328778277655</v>
@@ -6020,10 +6022,10 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U23" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W23" t="n">
         <v>3040.963574146293</v>
@@ -6066,13 +6068,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J24" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K24" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L24" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M24" t="n">
         <v>1227.062870902635</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C25" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D25" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F25" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G25" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H25" t="n">
         <v>131.0229611302705</v>
@@ -6145,13 +6147,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J25" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K25" t="n">
         <v>423.2675027973144</v>
       </c>
       <c r="L25" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M25" t="n">
         <v>1176.995117350173</v>
@@ -6175,10 +6177,10 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T25" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U25" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V25" t="n">
         <v>1504.150283386255</v>
@@ -6190,7 +6192,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2065.823947814752</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1738.858329634871</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1422.589529788652</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1078.798175950939</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>709.8091699218629</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G26" t="n">
-        <v>336.7336185273907</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.87963479397</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M26" t="n">
-        <v>1872.54330705881</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285457</v>
+        <v>2456.09431497013</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164794</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521972</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277654</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3989.052075122083</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3825.071226266837</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3613.537648301204</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3324.471659718165</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
-        <v>3013.699903208582</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2682.231043708034</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2410.426889118342</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6302,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>708.0499015609834</v>
+        <v>2517.474464532007</v>
       </c>
       <c r="C28" t="n">
-        <v>581.1106173936078</v>
+        <v>2395.987914552173</v>
       </c>
       <c r="D28" t="n">
-        <v>472.9908767418033</v>
+        <v>2293.32090808791</v>
       </c>
       <c r="E28" t="n">
-        <v>367.0746819199414</v>
+        <v>2192.85744745359</v>
       </c>
       <c r="F28" t="n">
-        <v>262.1816331825623</v>
+        <v>2093.417132903753</v>
       </c>
       <c r="G28" t="n">
-        <v>136.4756953178125</v>
+        <v>1973.163929226545</v>
       </c>
       <c r="H28" t="n">
-        <v>136.4756953178125</v>
+        <v>1874.396375392477</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668913</v>
+        <v>1824.520331158895</v>
       </c>
       <c r="J28" t="n">
-        <v>167.4307098188214</v>
+        <v>1916.148348858238</v>
       </c>
       <c r="K28" t="n">
-        <v>412.5790532428945</v>
+        <v>2166.640917059521</v>
       </c>
       <c r="L28" t="n">
-        <v>770.3000121665873</v>
+        <v>2529.706100760423</v>
       </c>
       <c r="M28" t="n">
-        <v>1155.618218241333</v>
+        <v>2920.368531612379</v>
       </c>
       <c r="N28" t="n">
-        <v>1538.187755422394</v>
+        <v>3308.28229357065</v>
       </c>
       <c r="O28" t="n">
-        <v>1878.678514818004</v>
+        <v>3654.11727774347</v>
       </c>
       <c r="P28" t="n">
-        <v>2152.44717572686</v>
+        <v>3933.230163429536</v>
       </c>
       <c r="Q28" t="n">
-        <v>2271.218632354572</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="R28" t="n">
-        <v>2249.162331069372</v>
+        <v>4014.965020540059</v>
       </c>
       <c r="S28" t="n">
-        <v>2099.473345656729</v>
+        <v>3870.728769314959</v>
       </c>
       <c r="T28" t="n">
-        <v>1919.703628986786</v>
+        <v>3696.411786832558</v>
       </c>
       <c r="U28" t="n">
-        <v>1672.597660872961</v>
+        <v>3454.758552906275</v>
       </c>
       <c r="V28" t="n">
-        <v>1459.910071427606</v>
+        <v>3247.523697648461</v>
       </c>
       <c r="W28" t="n">
-        <v>1212.489800151176</v>
+        <v>3005.556160559574</v>
       </c>
       <c r="X28" t="n">
-        <v>1026.497148013691</v>
+        <v>2825.01624260963</v>
       </c>
       <c r="Y28" t="n">
-        <v>847.7014676306918</v>
+        <v>2651.673296414173</v>
       </c>
     </row>
     <row r="29">
@@ -6440,10 +6442,10 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
         <v>1062.439973388313</v>
@@ -6452,40 +6454,40 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>792.1780824632688</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1243.212295711678</v>
       </c>
       <c r="M29" t="n">
-        <v>1588.411539465894</v>
+        <v>1776.744200383602</v>
       </c>
       <c r="N29" t="n">
-        <v>2568.163811692541</v>
+        <v>2323.523017442385</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164794</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521972</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277654</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309626</v>
@@ -6500,13 +6502,13 @@
         <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6585,7 +6587,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697999</v>
+        <v>2517.474464532007</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899663</v>
+        <v>2395.987914552173</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257039</v>
+        <v>2293.320908087911</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>2192.857447453591</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>2093.417132903754</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>1973.163929226546</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>1874.396375392477</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668913</v>
+        <v>1824.520331158895</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>1916.148348858238</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>2166.640917059521</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982173</v>
+        <v>2529.706100760423</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>2920.368531612379</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>3308.28229357065</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>3654.11727774347</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>3933.230163429536</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572252</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277853</v>
+        <v>4014.965020540059</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052753</v>
+        <v>3870.728769314959</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>3696.411786832558</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>3454.758552906275</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386254</v>
+        <v>3247.523697648461</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>3005.556160559574</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>2825.01624260963</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519662</v>
+        <v>2651.673296414173</v>
       </c>
     </row>
     <row r="32">
@@ -6686,46 +6688,46 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467786</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>792.1780824632679</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1243.212295711677</v>
+        <v>1273.952146712634</v>
       </c>
       <c r="M32" t="n">
-        <v>1776.744200383601</v>
+        <v>1807.484051384558</v>
       </c>
       <c r="N32" t="n">
-        <v>2323.523017442384</v>
+        <v>2787.236323611205</v>
       </c>
       <c r="O32" t="n">
-        <v>2826.495488321721</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P32" t="n">
-        <v>3539.850575768666</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277654</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
         <v>3835.976694641921</v>
@@ -6734,7 +6736,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
@@ -6768,22 +6770,22 @@
         <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572841</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873068</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K33" t="n">
         <v>413.0883853676537</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803193</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502697997</v>
       </c>
       <c r="C34" t="n">
         <v>652.614500289966</v>
@@ -6841,58 +6843,58 @@
         <v>549.9474938257036</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913838</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982154</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350171</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308442</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481262</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167328</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.03837257035</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6901,7 +6903,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1301.367519464213</v>
+        <v>1369.318056916146</v>
       </c>
       <c r="C35" t="n">
-        <v>979.8546354718749</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="D35" t="n">
-        <v>669.0385698131977</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="E35" t="n">
-        <v>330.6999501630268</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F35" t="n">
-        <v>66.51211643218343</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3262.76478608434</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T35" t="n">
-        <v>3104.236671416635</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U35" t="n">
-        <v>2898.155827638545</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V35" t="n">
-        <v>2614.542573243048</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W35" t="n">
-        <v>2309.223550921007</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X35" t="n">
-        <v>1983.207425608</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y35" t="n">
-        <v>1640.517726580262</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7047,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,61 +7071,61 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>759.4662498052942</v>
+        <v>759.466249805294</v>
       </c>
       <c r="C37" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254603</v>
       </c>
       <c r="D37" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611979</v>
       </c>
       <c r="E37" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268782</v>
       </c>
       <c r="F37" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770412</v>
       </c>
       <c r="G37" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H37" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K37" t="n">
-        <v>408.6327023328075</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L37" t="n">
-        <v>771.6978860337103</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M37" t="n">
-        <v>1162.360316885666</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N37" t="n">
-        <v>1550.274078843937</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O37" t="n">
-        <v>1896.109063016757</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P37" t="n">
-        <v>2175.221948702823</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q37" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R37" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T37" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U37" t="n">
         <v>1696.750338179562</v>
@@ -7138,7 +7140,7 @@
         <v>1067.008027882917</v>
       </c>
       <c r="Y37" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874603</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1522.73666965675</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C38" t="n">
-        <v>1201.223785664412</v>
+        <v>1696.959858232655</v>
       </c>
       <c r="D38" t="n">
-        <v>890.4077200057347</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E38" t="n">
-        <v>552.0691003555639</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F38" t="n">
-        <v>316.6460838753429</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G38" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609172</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609172</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U38" t="n">
-        <v>3119.524977831082</v>
+        <v>2983.925902764277</v>
       </c>
       <c r="V38" t="n">
-        <v>2835.911723435584</v>
+        <v>2700.31264836878</v>
       </c>
       <c r="W38" t="n">
-        <v>2530.592701113544</v>
+        <v>2700.31264836878</v>
       </c>
       <c r="X38" t="n">
-        <v>2204.576575800537</v>
+        <v>2700.31264836878</v>
       </c>
       <c r="Y38" t="n">
-        <v>1861.886876772799</v>
+        <v>2357.622949341042</v>
       </c>
     </row>
     <row r="39">
@@ -7242,22 +7244,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>759.4662498052944</v>
+        <v>1785.73444130672</v>
       </c>
       <c r="C40" t="n">
-        <v>637.9796998254608</v>
+        <v>1664.247891326886</v>
       </c>
       <c r="D40" t="n">
-        <v>535.3126933611984</v>
+        <v>1561.580884862624</v>
       </c>
       <c r="E40" t="n">
-        <v>434.8492327268787</v>
+        <v>1461.117424228304</v>
       </c>
       <c r="F40" t="n">
-        <v>335.4089181770416</v>
+        <v>1361.677109678467</v>
       </c>
       <c r="G40" t="n">
-        <v>215.1557144998336</v>
+        <v>1241.423906001259</v>
       </c>
       <c r="H40" t="n">
-        <v>116.3881606657647</v>
+        <v>1142.65635216719</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>1092.780307933609</v>
       </c>
       <c r="J40" t="n">
-        <v>158.1401341315256</v>
+        <v>1184.408325632951</v>
       </c>
       <c r="K40" t="n">
-        <v>408.6327023328087</v>
+        <v>1434.900893834234</v>
       </c>
       <c r="L40" t="n">
-        <v>771.6978860337115</v>
+        <v>1797.966077535137</v>
       </c>
       <c r="M40" t="n">
-        <v>1162.360316885667</v>
+        <v>2188.628508387093</v>
       </c>
       <c r="N40" t="n">
-        <v>1550.274078843938</v>
+        <v>2576.542270345363</v>
       </c>
       <c r="O40" t="n">
-        <v>1896.109063016759</v>
+        <v>2922.377254518183</v>
       </c>
       <c r="P40" t="n">
-        <v>2175.221948702825</v>
+        <v>3201.490140204249</v>
       </c>
       <c r="Q40" t="n">
-        <v>2299.337630107746</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R40" t="n">
-        <v>2256.956805813347</v>
+        <v>3283.224997314772</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.720554588247</v>
+        <v>3138.988746089672</v>
       </c>
       <c r="T40" t="n">
-        <v>1938.403572105846</v>
+        <v>2964.671763607271</v>
       </c>
       <c r="U40" t="n">
-        <v>1696.750338179563</v>
+        <v>2723.018529680988</v>
       </c>
       <c r="V40" t="n">
-        <v>1489.515482921749</v>
+        <v>2515.783674423174</v>
       </c>
       <c r="W40" t="n">
-        <v>1247.547945832862</v>
+        <v>2273.816137334287</v>
       </c>
       <c r="X40" t="n">
-        <v>1067.008027882918</v>
+        <v>2093.276219384343</v>
       </c>
       <c r="Y40" t="n">
-        <v>893.6650816874608</v>
+        <v>1919.933273188886</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1643.918159359977</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C41" t="n">
-        <v>1280.408376607107</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="D41" t="n">
-        <v>927.5954121878987</v>
+        <v>194.5422403324639</v>
       </c>
       <c r="E41" t="n">
-        <v>547.2598937771965</v>
+        <v>194.5422403324639</v>
       </c>
       <c r="F41" t="n">
-        <v>141.7267231751309</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G41" t="n">
-        <v>141.7267231751309</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912101</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3125.080808180936</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U41" t="n">
-        <v>3125.080808180936</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V41" t="n">
-        <v>3125.080808180936</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W41" t="n">
-        <v>2777.764887098364</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X41" t="n">
-        <v>2409.751863024826</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2025.065265236557</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="42">
@@ -7479,34 +7481,34 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>821.8057278423034</v>
+        <v>796.8106393615039</v>
       </c>
       <c r="C43" t="n">
-        <v>658.3222791019385</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="D43" t="n">
-        <v>653.4242441697421</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E43" t="n">
-        <v>510.963884774891</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F43" t="n">
-        <v>369.5266714645227</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G43" t="n">
-        <v>207.2765690267836</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>116.9789736563289</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>326.3103813824152</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
-        <v>648.2144046081213</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>997.7156749848803</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
-        <v>1344.468276467955</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>1649.142100165578</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P43" t="n">
-        <v>1887.093825376447</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1970.048346306172</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1970.048346306172</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1970.048346306172</v>
+        <v>1743.039038415517</v>
       </c>
       <c r="T43" t="n">
-        <v>1753.73446506324</v>
+        <v>1743.039038415517</v>
       </c>
       <c r="U43" t="n">
-        <v>1753.73446506324</v>
+        <v>1453.936171541161</v>
       </c>
       <c r="V43" t="n">
-        <v>1504.502711044895</v>
+        <v>1199.251683335274</v>
       </c>
       <c r="W43" t="n">
-        <v>1220.538275195476</v>
+        <v>1199.251683335274</v>
       </c>
       <c r="X43" t="n">
-        <v>998.0014584850011</v>
+        <v>1199.251683335274</v>
       </c>
       <c r="Y43" t="n">
-        <v>998.0014584850011</v>
+        <v>978.4591041917437</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1808.800296392464</v>
+        <v>1648.004869410819</v>
       </c>
       <c r="C44" t="n">
-        <v>1808.800296392464</v>
+        <v>1279.042352470408</v>
       </c>
       <c r="D44" t="n">
-        <v>1450.534597785713</v>
+        <v>920.7766538636572</v>
       </c>
       <c r="E44" t="n">
-        <v>1064.746345187469</v>
+        <v>534.9884012654129</v>
       </c>
       <c r="F44" t="n">
-        <v>653.7604403978614</v>
+        <v>534.9884012654129</v>
       </c>
       <c r="G44" t="n">
-        <v>238.6879902428579</v>
+        <v>119.9159511104094</v>
       </c>
       <c r="H44" t="n">
         <v>108.5090151927147</v>
@@ -7673,25 +7675,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U44" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V44" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W44" t="n">
-        <v>2182.266054653544</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X44" t="n">
-        <v>1808.800296392464</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y44" t="n">
-        <v>1808.800296392464</v>
+        <v>2034.604709474941</v>
       </c>
     </row>
     <row r="45">
@@ -7725,13 +7727,13 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>234.2149530574644</v>
+        <v>532.8809675997582</v>
       </c>
       <c r="C46" t="n">
-        <v>234.2149530574644</v>
+        <v>363.9447846718513</v>
       </c>
       <c r="D46" t="n">
-        <v>234.2149530574644</v>
+        <v>363.9447846718513</v>
       </c>
       <c r="E46" t="n">
-        <v>234.2149530574644</v>
+        <v>363.9447846718513</v>
       </c>
       <c r="F46" t="n">
-        <v>234.2149530574644</v>
+        <v>363.9447846718513</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>196.2419480465702</v>
       </c>
       <c r="H46" t="n">
         <v>66.5121164321834</v>
@@ -7828,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1615.697475415547</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1326.59460854119</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V46" t="n">
-        <v>1071.910120335303</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W46" t="n">
-        <v>782.4929502983425</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X46" t="n">
-        <v>554.5033994003252</v>
+        <v>935.322011573528</v>
       </c>
       <c r="Y46" t="n">
-        <v>415.8634178877041</v>
+        <v>714.5294324299979</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>218.2111409464629</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>233.4357089658653</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>227.7528737187178</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>226.7777408199137</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>227.6097508526263</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>229.1091522321465</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>136.5653954824675</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>136.8385818314783</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>140.1317786452013</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>129.2864630672354</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>140.7160931202018</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>132.4654202195568</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>138.9730561082392</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8140,16 +8142,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>134.8846762812383</v>
+        <v>133.8997196622861</v>
       </c>
       <c r="M4" t="n">
-        <v>138.9257839476051</v>
+        <v>137.8872852940284</v>
       </c>
       <c r="N4" t="n">
-        <v>127.6855444652332</v>
+        <v>126.6717389884799</v>
       </c>
       <c r="O4" t="n">
-        <v>138.4565384518428</v>
+        <v>137.5201250048898</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8216,25 +8218,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>202.8236344575718</v>
+        <v>205.7291124296681</v>
       </c>
       <c r="L5" t="n">
-        <v>214.3461465099969</v>
+        <v>217.9506488543192</v>
       </c>
       <c r="M5" t="n">
-        <v>206.5120573216581</v>
+        <v>210.5227606929648</v>
       </c>
       <c r="N5" t="n">
-        <v>205.1932258069597</v>
+        <v>209.2688265518754</v>
       </c>
       <c r="O5" t="n">
-        <v>207.2281053906793</v>
+        <v>211.0765796036726</v>
       </c>
       <c r="P5" t="n">
-        <v>211.713889376408</v>
+        <v>214.9984730796</v>
       </c>
       <c r="Q5" t="n">
-        <v>207.6476538770553</v>
+        <v>210.1142394483078</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9761063333168</v>
+        <v>121.130730803751</v>
       </c>
       <c r="K6" t="n">
-        <v>126.1140078377849</v>
+        <v>128.0874449636368</v>
       </c>
       <c r="L6" t="n">
-        <v>122.785401361858</v>
+        <v>125.4389311148335</v>
       </c>
       <c r="M6" t="n">
-        <v>123.7323798828547</v>
+        <v>126.8289239456644</v>
       </c>
       <c r="N6" t="n">
-        <v>112.4530210175835</v>
+        <v>115.6315213876814</v>
       </c>
       <c r="O6" t="n">
-        <v>125.3167823246156</v>
+        <v>128.2244891928039</v>
       </c>
       <c r="P6" t="n">
-        <v>120.1061156788775</v>
+        <v>122.4398067885643</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.7111883294728</v>
+        <v>132.2711990340602</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,19 +8379,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>125.8324684257267</v>
+        <v>127.3557315210249</v>
       </c>
       <c r="M7" t="n">
-        <v>129.3814999771644</v>
+        <v>130.9875673339106</v>
       </c>
       <c r="N7" t="n">
-        <v>118.368202235086</v>
+        <v>119.9360808998259</v>
       </c>
       <c r="O7" t="n">
-        <v>129.8504648467618</v>
+        <v>131.2986545621646</v>
       </c>
       <c r="P7" t="n">
-        <v>130.3640213348437</v>
+        <v>131.603197818875</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -9635,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>21.13839585591376</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>306.6874953089243</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,10 +9655,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9875,22 +9877,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>287.0017854473896</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>78.40458911672783</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10109,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>21.13839585591376</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10121,16 +10123,16 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>287.0017854473897</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10349,28 +10351,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>190.2350110279867</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>221.2853655744079</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -22559,7 +22561,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>15.28796821707175</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22796,7 +22798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.16700082036458</v>
+        <v>15.18984195493881</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23267,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>98.35495372958434</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687278</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.724779460851863</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>123.0387407269852</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>247.632627768728</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>141.9675461580032</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23735,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>72.71310498068465</v>
       </c>
       <c r="E17" t="n">
         <v>334.9552334536692</v>
@@ -23783,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23792,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>218.0361035584758</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>335.758705044888</v>
+        <v>287.8206362404712</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23978,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T20" t="n">
-        <v>64.33021254997242</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>75.57489583933284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>103.1780851413948</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>25.5194846247735</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -25151,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>67.27103207741396</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>98.35495372958388</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348608</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>247.6326277687278</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25400,10 +25402,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>126.8321228077</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348608</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25439,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>84.91237437447624</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25634,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>280.1262230804338</v>
       </c>
       <c r="G41" t="n">
-        <v>405.5235188077868</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>214.7470968661358</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>36.17872292725937</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.7895549425093</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>245.5969651132354</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>322.3540516244683</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25789,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>138.3682115896713</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>90.95421356417151</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>83.53394582438075</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>184.3708184857753</v>
+        <v>7.356070755195987</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>280.8136313599463</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.1864465064282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25874,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>165.7305790876787</v>
+        <v>283.3148978288027</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25925,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>16.32248161607782</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>81.33107165459998</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>787766.1826112125</v>
+        <v>787045.0467250329</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>780823.1686185182</v>
+        <v>782055.3160583673</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>660220.4058115759</v>
+        <v>660220.4058115758</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>660220.4058115761</v>
+        <v>660220.4058115759</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>660220.4058115761</v>
+        <v>660220.4058115759</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>725020.4407686739</v>
+        <v>732759.2686443931</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>660220.4058115761</v>
+        <v>660220.4058115759</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>660220.4058115761</v>
+        <v>660220.4058115759</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>598168.1862066716</v>
+        <v>590064.1156557746</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>590064.1156557747</v>
+        <v>590064.1156557746</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>737348.7048453345</v>
+        <v>737349.762917848</v>
       </c>
       <c r="C2" t="n">
-        <v>737358.429022148</v>
+        <v>737356.7926832672</v>
       </c>
       <c r="D2" t="n">
         <v>737416.3214963148</v>
       </c>
       <c r="E2" t="n">
+        <v>688077.9089008585</v>
+      </c>
+      <c r="F2" t="n">
         <v>688077.9089008587</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>688077.9089008588</v>
+      </c>
+      <c r="H2" t="n">
+        <v>688077.908900859</v>
+      </c>
+      <c r="I2" t="n">
+        <v>738937.5928778558</v>
+      </c>
+      <c r="J2" t="n">
+        <v>738937.5928778554</v>
+      </c>
+      <c r="K2" t="n">
+        <v>738937.5928778553</v>
+      </c>
+      <c r="L2" t="n">
+        <v>738937.5928778548</v>
+      </c>
+      <c r="M2" t="n">
         <v>688077.9089008586</v>
       </c>
-      <c r="G2" t="n">
-        <v>688077.908900859</v>
-      </c>
-      <c r="H2" t="n">
-        <v>688077.9089008585</v>
-      </c>
-      <c r="I2" t="n">
-        <v>738937.5928778556</v>
-      </c>
-      <c r="J2" t="n">
-        <v>730743.5398329751</v>
-      </c>
-      <c r="K2" t="n">
-        <v>738937.5928778556</v>
-      </c>
-      <c r="L2" t="n">
-        <v>738937.592877856</v>
-      </c>
-      <c r="M2" t="n">
-        <v>688077.908900859</v>
-      </c>
       <c r="N2" t="n">
-        <v>688077.9089008588</v>
+        <v>688077.9089008583</v>
       </c>
       <c r="O2" t="n">
-        <v>622375.5587309604</v>
+        <v>613794.7781476573</v>
       </c>
       <c r="P2" t="n">
-        <v>613794.7781476573</v>
+        <v>613794.7781476574</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3540.182044145911</v>
       </c>
       <c r="C3" t="n">
-        <v>30746.02380067981</v>
+        <v>22226.80017450951</v>
       </c>
       <c r="D3" t="n">
-        <v>172152.5186499906</v>
+        <v>177018.433672022</v>
       </c>
       <c r="E3" t="n">
-        <v>972725.1766621994</v>
+        <v>972725.1766621991</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,16 +26383,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>48646.25967902274</v>
+        <v>48646.25967902286</v>
       </c>
       <c r="J3" t="n">
-        <v>33261.5438183408</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="K3" t="n">
-        <v>4318.565476533268</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>436273.8797192482</v>
+        <v>435241.0409526689</v>
       </c>
       <c r="C4" t="n">
-        <v>426889.8030986709</v>
+        <v>428447.0260112234</v>
       </c>
       <c r="D4" t="n">
         <v>372681.4073629099</v>
       </c>
       <c r="E4" t="n">
+        <v>58215.55741359856</v>
+      </c>
+      <c r="F4" t="n">
+        <v>58215.55741359855</v>
+      </c>
+      <c r="G4" t="n">
         <v>58215.55741359857</v>
       </c>
-      <c r="F4" t="n">
-        <v>58215.55741359852</v>
-      </c>
-      <c r="G4" t="n">
-        <v>58215.55741359852</v>
-      </c>
       <c r="H4" t="n">
-        <v>58215.55741359859</v>
+        <v>58215.55741359855</v>
       </c>
       <c r="I4" t="n">
-        <v>82806.76150409837</v>
+        <v>82806.76150409841</v>
       </c>
       <c r="J4" t="n">
-        <v>77596.88371153655</v>
+        <v>82806.76150409839</v>
       </c>
       <c r="K4" t="n">
-        <v>82806.76150409839</v>
+        <v>82806.76150409838</v>
       </c>
       <c r="L4" t="n">
-        <v>82806.76150409842</v>
+        <v>82806.76150409838</v>
       </c>
       <c r="M4" t="n">
-        <v>58215.55741359855</v>
+        <v>58215.55741359857</v>
       </c>
       <c r="N4" t="n">
         <v>58215.55741359857</v>
       </c>
       <c r="O4" t="n">
-        <v>16445.42587595315</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="P4" t="n">
         <v>10990.29103211609</v>
@@ -26467,46 +26469,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33627.6</v>
+        <v>33707.69021107268</v>
       </c>
       <c r="C5" t="n">
-        <v>34363.66616156654</v>
+        <v>34239.80439905416</v>
       </c>
       <c r="D5" t="n">
         <v>38745.80483114667</v>
       </c>
       <c r="E5" t="n">
+        <v>78255.49332178175</v>
+      </c>
+      <c r="F5" t="n">
+        <v>78255.49332178175</v>
+      </c>
+      <c r="G5" t="n">
+        <v>78255.49332178175</v>
+      </c>
+      <c r="H5" t="n">
         <v>78255.49332178176</v>
-      </c>
-      <c r="F5" t="n">
-        <v>78255.49332178176</v>
-      </c>
-      <c r="G5" t="n">
-        <v>78255.49332178176</v>
-      </c>
-      <c r="H5" t="n">
-        <v>78255.49332178179</v>
       </c>
       <c r="I5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="J5" t="n">
-        <v>88924.11982349775</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
         <v>78255.49332178176</v>
       </c>
       <c r="N5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="O5" t="n">
-        <v>74760.16241270165</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
         <v>74306.34056139328</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>267447.2251260864</v>
+        <v>264860.8497099605</v>
       </c>
       <c r="C6" t="n">
-        <v>245358.9359612307</v>
+        <v>252443.1620984801</v>
       </c>
       <c r="D6" t="n">
-        <v>153836.5906522677</v>
+        <v>148970.6756302363</v>
       </c>
       <c r="E6" t="n">
-        <v>-421118.318496721</v>
+        <v>-421118.3184967209</v>
       </c>
       <c r="F6" t="n">
+        <v>551606.8581654785</v>
+      </c>
+      <c r="G6" t="n">
+        <v>551606.8581654786</v>
+      </c>
+      <c r="H6" t="n">
         <v>551606.8581654783</v>
-      </c>
-      <c r="G6" t="n">
-        <v>551606.8581654787</v>
-      </c>
-      <c r="H6" t="n">
-        <v>551606.8581654781</v>
       </c>
       <c r="I6" t="n">
         <v>518106.6300199284</v>
       </c>
       <c r="J6" t="n">
-        <v>530960.9924796001</v>
+        <v>529172.7804040769</v>
       </c>
       <c r="K6" t="n">
-        <v>562434.3242224179</v>
+        <v>566752.8896989508</v>
       </c>
       <c r="L6" t="n">
-        <v>566752.8896989515</v>
+        <v>566752.8896989503</v>
       </c>
       <c r="M6" t="n">
-        <v>390006.4250603643</v>
+        <v>390006.4250603639</v>
       </c>
       <c r="N6" t="n">
-        <v>551606.8581654786</v>
+        <v>551606.858165478</v>
       </c>
       <c r="O6" t="n">
-        <v>531169.9704423056</v>
+        <v>528498.1465541479</v>
       </c>
       <c r="P6" t="n">
-        <v>528498.1465541479</v>
+        <v>528498.1465541481</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26694,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G2" t="n">
+        <v>46.97513661859257</v>
+      </c>
+      <c r="H2" t="n">
+        <v>46.97513661859257</v>
+      </c>
+      <c r="I2" t="n">
+        <v>46.97513661859257</v>
+      </c>
+      <c r="J2" t="n">
         <v>46.97513661859254</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>46.97513661859254</v>
       </c>
-      <c r="I2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="J2" t="n">
-        <v>41.57692977292595</v>
-      </c>
-      <c r="K2" t="n">
-        <v>46.9751366185926</v>
-      </c>
       <c r="L2" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
         <v>46.97513661859259</v>
@@ -26722,7 +26724,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="O2" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>33.76450282415348</v>
+        <v>28.08277059881458</v>
       </c>
       <c r="D3" t="n">
         <v>234.7800381259942</v>
@@ -26796,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="H4" t="n">
         <v>831.4014554022928</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022932</v>
       </c>
       <c r="I4" t="n">
         <v>1014.336461208614</v>
@@ -26820,13 +26822,13 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022925</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,16 +26931,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.576929772926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>33.76450282415348</v>
+        <v>24.40890770557226</v>
       </c>
       <c r="D3" t="n">
-        <v>201.0155353018407</v>
+        <v>206.6972675271796</v>
       </c>
       <c r="E3" t="n">
-        <v>854.9966624673041</v>
+        <v>854.9966624673038</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>182.9350058063212</v>
+        <v>182.9350058063217</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959714</v>
+        <v>648.4664495959709</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.576929772926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,13 +27396,13 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,19 +27423,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27470,16 +27472,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27549,19 +27551,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,22 +27578,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27631,13 +27633,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.0846886904491</v>
+        <v>338.3186104599074</v>
       </c>
       <c r="I5" t="n">
-        <v>205.2429006452675</v>
+        <v>206.1234834859404</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4288070568376554</v>
+        <v>2.367419802406932</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.3426477882744</v>
+        <v>142.7774422079727</v>
       </c>
       <c r="S5" t="n">
-        <v>205.9269696541633</v>
+        <v>206.4474620082735</v>
       </c>
       <c r="T5" t="n">
-        <v>222.5016621827736</v>
+        <v>222.6016492493723</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3347939722549</v>
+        <v>251.3366212630208</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27707,13 +27709,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2708916288342</v>
+        <v>137.2831127132434</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5340344702815</v>
+        <v>111.6520644170758</v>
       </c>
       <c r="I6" t="n">
-        <v>86.89614844415465</v>
+        <v>87.31691823631418</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.64868036039108</v>
+        <v>96.40745961871087</v>
       </c>
       <c r="S6" t="n">
-        <v>170.3341836560992</v>
+        <v>170.5611849388758</v>
       </c>
       <c r="T6" t="n">
-        <v>199.8719968259971</v>
+        <v>199.9212563723658</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9366040852921</v>
+        <v>225.9374081040033</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27786,19 +27788,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9300925500873</v>
+        <v>167.9403382967232</v>
       </c>
       <c r="H7" t="n">
-        <v>161.6858334293736</v>
+        <v>161.7769274312815</v>
       </c>
       <c r="I7" t="n">
-        <v>153.6194425445976</v>
+        <v>153.9275600888832</v>
       </c>
       <c r="J7" t="n">
-        <v>89.05448276481307</v>
+        <v>89.77885705196817</v>
       </c>
       <c r="K7" t="n">
-        <v>15.19555172600283</v>
+        <v>16.38592119878695</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>81.06360332524721</v>
+        <v>81.92154489127338</v>
       </c>
       <c r="R7" t="n">
-        <v>174.5556990662143</v>
+        <v>175.016385092223</v>
       </c>
       <c r="S7" t="n">
-        <v>222.9555070219903</v>
+        <v>223.1340624429079</v>
       </c>
       <c r="T7" t="n">
-        <v>227.6854367016036</v>
+        <v>227.7292139826841</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3157082578525</v>
+        <v>286.3162671167598</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185929</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859244</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y28" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859068</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="35">
@@ -30168,7 +30170,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859142</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L37" t="n">
         <v>46.97513661859259</v>
@@ -30414,7 +30416,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859199</v>
       </c>
       <c r="O40" t="n">
         <v>46.97513661859259</v>
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>5.398206845666586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.9277519194678707</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.006624998659945164</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.05890226081296705</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.9849566189522113</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.2978840306553525</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.02830681245612933</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1357366947704662</v>
+        <v>0.1128955601962394</v>
       </c>
       <c r="H5" t="n">
-        <v>1.390113425318037</v>
+        <v>1.156191655859737</v>
       </c>
       <c r="I5" t="n">
-        <v>5.232988925138401</v>
+        <v>4.352406084465525</v>
       </c>
       <c r="J5" t="n">
-        <v>11.52048229777486</v>
+        <v>9.581869552205585</v>
       </c>
       <c r="K5" t="n">
-        <v>17.2662165874087</v>
+        <v>14.3607386153124</v>
       </c>
       <c r="L5" t="n">
-        <v>21.42026845999036</v>
+        <v>17.81576611566807</v>
       </c>
       <c r="M5" t="n">
-        <v>23.83417590561463</v>
+        <v>19.82347253430794</v>
       </c>
       <c r="N5" t="n">
-        <v>24.21983778963122</v>
+        <v>20.14423704471551</v>
       </c>
       <c r="O5" t="n">
-        <v>22.8701060310074</v>
+        <v>19.02163181801415</v>
       </c>
       <c r="P5" t="n">
-        <v>19.51910637886151</v>
+        <v>16.23452267566949</v>
       </c>
       <c r="Q5" t="n">
-        <v>14.65803599739419</v>
+        <v>12.19145042614166</v>
       </c>
       <c r="R5" t="n">
-        <v>8.526470152875302</v>
+        <v>7.091675733177031</v>
       </c>
       <c r="S5" t="n">
-        <v>3.093099932082001</v>
+        <v>2.572607577971809</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5941873813577159</v>
+        <v>0.4942003147590384</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01085893558163729</v>
+        <v>0.009031644815699152</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07262553437648107</v>
+        <v>0.06040444996726155</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7014097662149621</v>
+        <v>0.5833798194206578</v>
       </c>
       <c r="I6" t="n">
-        <v>2.500484407260423</v>
+        <v>2.079714615100892</v>
       </c>
       <c r="J6" t="n">
-        <v>6.861520333349908</v>
+        <v>5.706895862915707</v>
       </c>
       <c r="K6" t="n">
-        <v>11.72743113657414</v>
+        <v>9.753994010722231</v>
       </c>
       <c r="L6" t="n">
-        <v>15.76897841801621</v>
+        <v>13.11544866504072</v>
       </c>
       <c r="M6" t="n">
-        <v>18.40165403916365</v>
+        <v>15.30510997635394</v>
       </c>
       <c r="N6" t="n">
-        <v>18.88869106574979</v>
+        <v>15.71019069565194</v>
       </c>
       <c r="O6" t="n">
-        <v>17.27946211982881</v>
+        <v>14.37175525164051</v>
       </c>
       <c r="P6" t="n">
-        <v>13.86829173545278</v>
+        <v>11.53460062576594</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.270585756548709</v>
+        <v>7.710575051961317</v>
       </c>
       <c r="R6" t="n">
-        <v>4.509153792252046</v>
+        <v>3.750374533932258</v>
       </c>
       <c r="S6" t="n">
-        <v>1.348987447738584</v>
+        <v>1.121986164962072</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2927318688245004</v>
+        <v>0.2434723224557603</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004777995682663231</v>
+        <v>0.003973976971530367</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0608868083714243</v>
+        <v>0.05064106173556727</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5413390780659365</v>
+        <v>0.4502450761580439</v>
       </c>
       <c r="I7" t="n">
-        <v>1.831032382660651</v>
+        <v>1.52291483837506</v>
       </c>
       <c r="J7" t="n">
-        <v>4.304697351859698</v>
+        <v>3.580323064704606</v>
       </c>
       <c r="K7" t="n">
-        <v>7.073940099880022</v>
+        <v>5.883570627095906</v>
       </c>
       <c r="L7" t="n">
-        <v>9.052207855511575</v>
+        <v>7.528944760213339</v>
       </c>
       <c r="M7" t="n">
-        <v>9.544283970440629</v>
+        <v>7.938216613694421</v>
       </c>
       <c r="N7" t="n">
-        <v>9.317342230147146</v>
+        <v>7.749463565407313</v>
       </c>
       <c r="O7" t="n">
-        <v>8.606073605080958</v>
+        <v>7.157883889678184</v>
       </c>
       <c r="P7" t="n">
-        <v>7.363982714303897</v>
+        <v>6.124806230272607</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.098439926447176</v>
+        <v>4.240498360421001</v>
       </c>
       <c r="R7" t="n">
-        <v>2.737692310955132</v>
+        <v>2.277006284946506</v>
       </c>
       <c r="S7" t="n">
-        <v>1.061091014982003</v>
+        <v>0.8825355940643856</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2601527266779038</v>
+        <v>0.2163754455974237</v>
       </c>
       <c r="U7" t="n">
-        <v>0.00332109863844133</v>
+        <v>0.002762239731030945</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32786,7 +32788,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -33032,7 +33034,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33260,7 +33262,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33740,7 +33742,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33904,7 +33906,7 @@
         <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095034</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
         <v>738.1512123099059</v>
@@ -33974,7 +33976,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34211,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34445,7 +34447,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165884</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O13" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
@@ -35811,7 +35813,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N16" t="n">
         <v>391.8320827861326</v>
@@ -35820,7 +35822,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K19" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M19" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120766</v>
       </c>
       <c r="N19" t="n">
         <v>391.8320827861326</v>
       </c>
       <c r="O19" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P19" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36136,7 +36138,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193738</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165877</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K22" t="n">
         <v>253.0227961629121</v>
@@ -36288,7 +36290,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O22" t="n">
         <v>349.3282668412323</v>
@@ -36355,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>358.3296824113143</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>845.6086111391511</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
@@ -36373,10 +36375,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597723</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165877</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
@@ -36525,10 +36527,10 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O25" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412321</v>
       </c>
       <c r="P25" t="n">
         <v>281.932207763703</v>
@@ -36595,22 +36597,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>825.9229012776163</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>586.457590004947</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
@@ -36680,7 +36682,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.15534638599217</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K28" t="n">
-        <v>247.6245893172455</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>361.334301943124</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>389.2103091664098</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>386.433875940466</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
-        <v>343.9300599955657</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>276.5340009180364</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>119.9711683108196</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>358.3296824113143</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
@@ -36841,16 +36843,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>795.0547863356088</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597723</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165882</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -36999,16 +37001,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37071,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>527.4262975833872</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>676.87547996674</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165887</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887888</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637031</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,7 +37390,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37464,7 +37466,7 @@
         <v>92.55355323165881</v>
       </c>
       <c r="K37" t="n">
-        <v>253.022796162911</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L37" t="n">
         <v>366.7325087887907</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.787000968712</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
@@ -37552,7 +37554,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129124</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
@@ -37622,7 +37624,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37710,7 +37712,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.832082786132</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687138</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
@@ -37859,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>50.9766234587328</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>211.4458663899862</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>325.1555790158647</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>353.0315862391504</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>350.2551530132067</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>307.7513370683064</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>240.355277990777</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>83.79244538356025</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
